--- a/data/georgia_census/mcxeta-mtianeti/tianeti/age_dependency.xlsx
+++ b/data/georgia_census/mcxeta-mtianeti/tianeti/age_dependency.xlsx
@@ -1007,13 +1007,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D577BF1D-C843-4A2C-B3C5-8FEB172A10F8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB53D333-8A49-4EC9-BA2D-7372E7988EC7}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5FDA25C5-97C1-4E16-A2B3-6060492424C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5E288BC-7221-4F86-BA3A-437CDAED384A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDD77995-FA5B-48CB-B80F-E802AE17A424}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FF0707C-EAD4-430F-8D41-93CCE7EF9E5C}"/>
 </file>